--- a/АПП_ФН.xlsx
+++ b/АПП_ФН.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -38,19 +38,16 @@
     <t>Фискальный накопитель</t>
   </si>
   <si>
-    <t>впывапывапвфы</t>
+    <t>lksdfkjflkjsdflk</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>ваивавапиавп</t>
-  </si>
-  <si>
-    <t>фываывапыпа</t>
-  </si>
-  <si>
-    <t>вапывапывапыап</t>
+    <t>l</t>
+  </si>
+  <si>
+    <t>,cvmb.,cm.m.gxf</t>
   </si>
   <si>
     <t xml:space="preserve">Место составления акта/адрес ТТ: </t>
@@ -707,18 +704,22 @@
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="C13" s="22" t="s"/>
       <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="14" s="17" spans="1:4">
-      <c r="A14" s="22" t="n"/>
-      <c r="B14" s="23" t="n"/>
-      <c r="C14" s="22" t="n"/>
-      <c r="D14" s="22" t="n"/>
+      <c r="A14" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="22" t="s"/>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="15" s="17" spans="1:4">
       <c r="A15" s="22" t="n"/>
@@ -812,54 +813,54 @@
     </row>
     <row customHeight="1" ht="17.3" r="30" s="17" spans="1:4">
       <c r="A30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="31" s="17" spans="1:4">
       <c r="A31" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="32" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="33" s="17" spans="1:4">
       <c r="A33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="34" s="17" spans="1:4">
       <c r="A34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="35" s="17" spans="1:4">
       <c r="A35" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="36" s="17" spans="1:4">
       <c r="A36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="37" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="38" s="17" spans="1:4">
       <c r="A38" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="39" s="17" spans="1:4"/>

--- a/АПП_ФН.xlsx
+++ b/АПП_ФН.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -38,16 +38,40 @@
     <t>Фискальный накопитель</t>
   </si>
   <si>
-    <t>lksdfkjflkjsdflk</t>
+    <t>kldfkjdlfkb</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>,cvmb.,cm.m.gxf</t>
+    <t>fghfghdfh</t>
+  </si>
+  <si>
+    <t>fdghfghdf</t>
+  </si>
+  <si>
+    <t>fghdfghdfh</t>
+  </si>
+  <si>
+    <t>dfhdfhdh</t>
+  </si>
+  <si>
+    <t>dfhdfhdfh</t>
+  </si>
+  <si>
+    <t>lkdjflkjghf</t>
+  </si>
+  <si>
+    <t>ddflkjflj</t>
+  </si>
+  <si>
+    <t>fgk</t>
+  </si>
+  <si>
+    <t>kjsdhkjhdf</t>
+  </si>
+  <si>
+    <t>jhdkfjhkjhfd</t>
   </si>
   <si>
     <t xml:space="preserve">Место составления акта/адрес ТТ: </t>
@@ -704,7 +728,9 @@
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s"/>
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
@@ -716,46 +742,96 @@
       <c r="B14" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22" t="s"/>
+      <c r="C14" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="15" s="17" spans="1:4">
-      <c r="A15" s="22" t="n"/>
-      <c r="B15" s="23" t="n"/>
-      <c r="C15" s="22" t="n"/>
-      <c r="D15" s="22" t="n"/>
+      <c r="A15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="16" s="17" spans="1:4">
-      <c r="A16" s="22" t="n"/>
-      <c r="B16" s="23" t="n"/>
-      <c r="C16" s="22" t="n"/>
-      <c r="D16" s="22" t="n"/>
+      <c r="A16" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="17" s="17" spans="1:4">
-      <c r="A17" s="22" t="n"/>
-      <c r="B17" s="23" t="n"/>
-      <c r="C17" s="22" t="n"/>
-      <c r="D17" s="22" t="n"/>
+      <c r="A17" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="18" s="17" spans="1:4">
-      <c r="A18" s="22" t="n"/>
-      <c r="B18" s="23" t="n"/>
-      <c r="C18" s="22" t="n"/>
-      <c r="D18" s="22" t="n"/>
+      <c r="A18" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="19" s="17" spans="1:4">
-      <c r="A19" s="22" t="n"/>
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="22" t="n"/>
-      <c r="D19" s="22" t="n"/>
+      <c r="A19" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="20" s="17" spans="1:4">
-      <c r="A20" s="22" t="n"/>
-      <c r="B20" s="23" t="n"/>
-      <c r="C20" s="22" t="n"/>
-      <c r="D20" s="22" t="n"/>
+      <c r="A20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="21" s="17" spans="1:4">
       <c r="A21" s="22" t="n"/>
@@ -813,54 +889,54 @@
     </row>
     <row customHeight="1" ht="17.3" r="30" s="17" spans="1:4">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="31" s="17" spans="1:4">
       <c r="A31" s="24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="32" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="33" s="17" spans="1:4">
       <c r="A33" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="34" s="17" spans="1:4">
       <c r="A34" s="24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="35" s="17" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="36" s="17" spans="1:4">
       <c r="A36" s="27" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="37" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="38" s="17" spans="1:4">
       <c r="A38" s="24" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="39" s="17" spans="1:4"/>

--- a/АПП_ФН.xlsx
+++ b/АПП_ФН.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -39,13 +39,16 @@
     <t>Фискальный накопитель</t>
   </si>
   <si>
-    <t>msdf,k,mn</t>
+    <t>kjdfjlkdjgkldfg</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>фыукфцуп</t>
+    <t>sfghdfghdfghdfh</t>
+  </si>
+  <si>
+    <t>sdfasfasdfasdfa</t>
   </si>
   <si>
     <t xml:space="preserve">Место составления акта/адрес ТТ: </t>
@@ -682,10 +685,18 @@
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="12" s="17" spans="1:4">
-      <c r="A12" s="22" t="n"/>
-      <c r="B12" s="23" t="n"/>
-      <c r="C12" s="22" t="n"/>
-      <c r="D12" s="22" t="n"/>
+      <c r="A12" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="13" s="17" spans="1:4">
       <c r="A13" s="22" t="n"/>
@@ -791,54 +802,54 @@
     </row>
     <row customHeight="1" ht="17.3" r="30" s="17" spans="1:4">
       <c r="A30" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="31" s="17" spans="1:4">
       <c r="A31" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="32" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="33" s="17" spans="1:4">
       <c r="A33" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="34" s="17" spans="1:4">
       <c r="A34" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="35" s="17" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="36" s="17" spans="1:4">
       <c r="A36" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="37" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="38" s="17" spans="1:4">
       <c r="A38" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="39" s="17" spans="1:4"/>
@@ -895,15 +906,15 @@
   <sheetData>
     <row customHeight="1" ht="17.3" r="1" s="17" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="2" s="17" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="14" t="n"/>
       <c r="D2" s="14" t="n"/>
@@ -916,34 +927,34 @@
     </row>
     <row customHeight="1" ht="17.3" r="4" s="17" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="5" s="17" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="6" s="17" spans="1:4">
       <c r="A6" s="26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="7" s="17" spans="1:4">
       <c r="A7" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="8" s="17" spans="1:4">
@@ -954,7 +965,7 @@
     </row>
     <row customHeight="1" ht="17.3" r="9" s="17" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/АПП_ФН.xlsx
+++ b/АПП_ФН.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -39,16 +39,34 @@
     <t>Фискальный накопитель</t>
   </si>
   <si>
-    <t>kjdfjlkdjgkldfg</t>
+    <t>sdfasdf</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>sfghdfghdfghdfh</t>
-  </si>
-  <si>
-    <t>sdfasfasdfasdfa</t>
+    <t>asdfgasdfg</t>
+  </si>
+  <si>
+    <t>dfgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsd</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsdf</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsdfgsdfg</t>
+  </si>
+  <si>
+    <t>sdfgsdfgsdfgsdfgdsf</t>
   </si>
   <si>
     <t xml:space="preserve">Место составления акта/адрес ТТ: </t>
@@ -699,157 +717,293 @@
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="13" s="17" spans="1:4">
-      <c r="A13" s="22" t="n"/>
-      <c r="B13" s="23" t="n"/>
-      <c r="C13" s="22" t="n"/>
-      <c r="D13" s="22" t="n"/>
+      <c r="A13" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="14" s="17" spans="1:4">
-      <c r="A14" s="22" t="n"/>
-      <c r="B14" s="23" t="n"/>
-      <c r="C14" s="22" t="n"/>
-      <c r="D14" s="22" t="n"/>
+      <c r="A14" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="15" s="17" spans="1:4">
-      <c r="A15" s="22" t="n"/>
-      <c r="B15" s="23" t="n"/>
-      <c r="C15" s="22" t="n"/>
-      <c r="D15" s="22" t="n"/>
+      <c r="A15" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="16" s="17" spans="1:4">
-      <c r="A16" s="22" t="n"/>
-      <c r="B16" s="23" t="n"/>
-      <c r="C16" s="22" t="n"/>
-      <c r="D16" s="22" t="n"/>
+      <c r="A16" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="17" s="17" spans="1:4">
-      <c r="A17" s="22" t="n"/>
-      <c r="B17" s="23" t="n"/>
-      <c r="C17" s="22" t="n"/>
-      <c r="D17" s="22" t="n"/>
+      <c r="A17" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="18" s="17" spans="1:4">
-      <c r="A18" s="22" t="n"/>
-      <c r="B18" s="23" t="n"/>
-      <c r="C18" s="22" t="n"/>
-      <c r="D18" s="22" t="n"/>
+      <c r="A18" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="19" s="17" spans="1:4">
-      <c r="A19" s="22" t="n"/>
-      <c r="B19" s="23" t="n"/>
-      <c r="C19" s="22" t="n"/>
-      <c r="D19" s="22" t="n"/>
+      <c r="A19" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="20" s="17" spans="1:4">
-      <c r="A20" s="22" t="n"/>
-      <c r="B20" s="23" t="n"/>
-      <c r="C20" s="22" t="n"/>
-      <c r="D20" s="22" t="n"/>
+      <c r="A20" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="21" s="17" spans="1:4">
-      <c r="A21" s="22" t="n"/>
-      <c r="B21" s="23" t="n"/>
-      <c r="C21" s="22" t="n"/>
-      <c r="D21" s="22" t="n"/>
+      <c r="A21" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="22" s="17" spans="1:4">
-      <c r="A22" s="22" t="n"/>
-      <c r="B22" s="23" t="n"/>
-      <c r="C22" s="22" t="n"/>
-      <c r="D22" s="22" t="n"/>
+      <c r="A22" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="23" s="17" spans="1:4">
-      <c r="A23" s="22" t="n"/>
-      <c r="B23" s="23" t="n"/>
-      <c r="C23" s="22" t="n"/>
-      <c r="D23" s="22" t="n"/>
+      <c r="A23" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="24" s="17" spans="1:4">
-      <c r="A24" s="22" t="n"/>
-      <c r="B24" s="23" t="n"/>
-      <c r="C24" s="22" t="n"/>
-      <c r="D24" s="22" t="n"/>
+      <c r="A24" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="25" s="17" spans="1:4">
-      <c r="A25" s="22" t="n"/>
-      <c r="B25" s="23" t="n"/>
-      <c r="C25" s="22" t="n"/>
-      <c r="D25" s="22" t="n"/>
+      <c r="A25" s="22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="26" s="17" spans="1:4">
-      <c r="A26" s="22" t="n"/>
-      <c r="B26" s="23" t="n"/>
-      <c r="C26" s="22" t="n"/>
-      <c r="D26" s="22" t="n"/>
+      <c r="A26" s="22" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="27" s="17" spans="1:4">
-      <c r="A27" s="22" t="n"/>
-      <c r="B27" s="23" t="n"/>
-      <c r="C27" s="22" t="n"/>
-      <c r="D27" s="22" t="n"/>
+      <c r="A27" s="22" t="n">
+        <v>18</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="28" s="17" spans="1:4">
-      <c r="A28" s="22" t="n"/>
-      <c r="B28" s="23" t="n"/>
-      <c r="C28" s="22" t="n"/>
-      <c r="D28" s="22" t="n"/>
+      <c r="A28" s="22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="29" s="17" spans="1:4">
-      <c r="A29" s="22" t="n"/>
-      <c r="B29" s="23" t="n"/>
-      <c r="C29" s="22" t="n"/>
-      <c r="D29" s="22" t="n"/>
+      <c r="A29" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row customHeight="1" ht="17.3" r="30" s="17" spans="1:4">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="31" s="17" spans="1:4">
       <c r="A31" s="24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="32" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="33" s="17" spans="1:4">
       <c r="A33" s="19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="34" s="17" spans="1:4">
       <c r="A34" s="24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="35" s="17" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="36" s="17" spans="1:4">
       <c r="A36" s="27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="37" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="38" s="17" spans="1:4">
       <c r="A38" s="24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="39" s="17" spans="1:4"/>
@@ -906,15 +1060,15 @@
   <sheetData>
     <row customHeight="1" ht="17.3" r="1" s="17" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="2" s="17" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" s="14" t="n"/>
       <c r="D2" s="14" t="n"/>
@@ -927,34 +1081,34 @@
     </row>
     <row customHeight="1" ht="17.3" r="4" s="17" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="5" s="17" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="6" s="17" spans="1:4">
       <c r="A6" s="26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="7" s="17" spans="1:4">
       <c r="A7" s="27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="8" s="17" spans="1:4">
@@ -965,7 +1119,7 @@
     </row>
     <row customHeight="1" ht="17.3" r="9" s="17" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/АПП_ФН.xlsx
+++ b/АПП_ФН.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>АКТ ПРИЁМА-ПЕРЕДАЧИ</t>
   </si>
@@ -39,34 +39,22 @@
     <t>Фискальный накопитель</t>
   </si>
   <si>
-    <t>sdfasdf</t>
+    <t>asdadA</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>asdfgasdfg</t>
-  </si>
-  <si>
-    <t>dfgsdfgsdfg</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfg</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfgsdfg</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfgsd</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfgsdf</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfgsdfgsdfg</t>
-  </si>
-  <si>
-    <t>sdfgsdfgsdfgsdfgdsf</t>
+    <t>FDGSDFGSDFG</t>
+  </si>
+  <si>
+    <t>DSFGSDFGS</t>
+  </si>
+  <si>
+    <t>DFGDSFGDFSGSDFG</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
   <si>
     <t xml:space="preserve">Место составления акта/адрес ТТ: </t>
@@ -738,272 +726,152 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="15" s="17" spans="1:4">
-      <c r="A15" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="22" t="n"/>
+      <c r="B15" s="23" t="n"/>
+      <c r="C15" s="22" t="n"/>
+      <c r="D15" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="16" s="17" spans="1:4">
-      <c r="A16" s="22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="22" t="n"/>
+      <c r="B16" s="23" t="n"/>
+      <c r="C16" s="22" t="n"/>
+      <c r="D16" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="17" s="17" spans="1:4">
-      <c r="A17" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="22" t="n"/>
+      <c r="B17" s="23" t="n"/>
+      <c r="C17" s="22" t="n"/>
+      <c r="D17" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="18" s="17" spans="1:4">
-      <c r="A18" s="22" t="n">
-        <v>9</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A18" s="22" t="n"/>
+      <c r="B18" s="23" t="n"/>
+      <c r="C18" s="22" t="n"/>
+      <c r="D18" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="19" s="17" spans="1:4">
-      <c r="A19" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="22" t="n"/>
+      <c r="B19" s="23" t="n"/>
+      <c r="C19" s="22" t="n"/>
+      <c r="D19" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="20" s="17" spans="1:4">
-      <c r="A20" s="22" t="n">
-        <v>11</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="22" t="n"/>
+      <c r="B20" s="23" t="n"/>
+      <c r="C20" s="22" t="n"/>
+      <c r="D20" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="21" s="17" spans="1:4">
-      <c r="A21" s="22" t="n">
-        <v>12</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A21" s="22" t="n"/>
+      <c r="B21" s="23" t="n"/>
+      <c r="C21" s="22" t="n"/>
+      <c r="D21" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="22" s="17" spans="1:4">
-      <c r="A22" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="22" t="n"/>
+      <c r="B22" s="23" t="n"/>
+      <c r="C22" s="22" t="n"/>
+      <c r="D22" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="23" s="17" spans="1:4">
-      <c r="A23" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A23" s="22" t="n"/>
+      <c r="B23" s="23" t="n"/>
+      <c r="C23" s="22" t="n"/>
+      <c r="D23" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="24" s="17" spans="1:4">
-      <c r="A24" s="22" t="n">
-        <v>15</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A24" s="22" t="n"/>
+      <c r="B24" s="23" t="n"/>
+      <c r="C24" s="22" t="n"/>
+      <c r="D24" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="25" s="17" spans="1:4">
-      <c r="A25" s="22" t="n">
-        <v>16</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A25" s="22" t="n"/>
+      <c r="B25" s="23" t="n"/>
+      <c r="C25" s="22" t="n"/>
+      <c r="D25" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="26" s="17" spans="1:4">
-      <c r="A26" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A26" s="22" t="n"/>
+      <c r="B26" s="23" t="n"/>
+      <c r="C26" s="22" t="n"/>
+      <c r="D26" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="27" s="17" spans="1:4">
-      <c r="A27" s="22" t="n">
-        <v>18</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A27" s="22" t="n"/>
+      <c r="B27" s="23" t="n"/>
+      <c r="C27" s="22" t="n"/>
+      <c r="D27" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="28" s="17" spans="1:4">
-      <c r="A28" s="22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A28" s="22" t="n"/>
+      <c r="B28" s="23" t="n"/>
+      <c r="C28" s="22" t="n"/>
+      <c r="D28" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="29" s="17" spans="1:4">
-      <c r="A29" s="22" t="n">
-        <v>20</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A29" s="22" t="n"/>
+      <c r="B29" s="23" t="n"/>
+      <c r="C29" s="22" t="n"/>
+      <c r="D29" s="22" t="n"/>
     </row>
     <row customHeight="1" ht="17.3" r="30" s="17" spans="1:4">
       <c r="A30" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="31" s="17" spans="1:4">
       <c r="A31" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="32" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="33" s="17" spans="1:4">
       <c r="A33" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="34" s="17" spans="1:4">
       <c r="A34" s="24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="35" s="17" spans="1:4">
       <c r="A35" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="36" s="17" spans="1:4">
       <c r="A36" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="37" s="17" spans="1:4"/>
     <row customHeight="1" ht="17.3" r="38" s="17" spans="1:4">
       <c r="A38" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="39" s="17" spans="1:4"/>
@@ -1060,15 +928,15 @@
   <sheetData>
     <row customHeight="1" ht="17.3" r="1" s="17" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="2" s="17" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="14" t="n"/>
       <c r="D2" s="14" t="n"/>
@@ -1081,34 +949,34 @@
     </row>
     <row customHeight="1" ht="17.3" r="4" s="17" spans="1:4">
       <c r="A4" s="19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="5" s="17" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="6" s="17" spans="1:4">
       <c r="A6" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="7" s="17" spans="1:4">
       <c r="A7" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="17.3" r="8" s="17" spans="1:4">
@@ -1119,7 +987,7 @@
     </row>
     <row customHeight="1" ht="17.3" r="9" s="17" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
